--- a/malzeme_list_sql_app/assets/database/malzeme_backup.xlsx
+++ b/malzeme_list_sql_app/assets/database/malzeme_backup.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t xml:space="preserve">Malzeme</t>
   </si>
@@ -23,172 +23,271 @@
     <t xml:space="preserve">Açıklama</t>
   </si>
   <si>
+    <t xml:space="preserve">Adaptör (USB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptör (USB) (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampul (beyaz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampul LED (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayakkabı çekeceği (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyo kesesi (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bel çantası (Ankara)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bornoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crocs terlik (sokak)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disk 5 TB (Ankara)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolap stoperi (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don (erkek)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dürbün (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eldiven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eldiven (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elektrikli el tornavidası (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethernet Kablo (UTP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eğe (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Güç korumalı priz</t>
+  </si>
+  <si>
     <t xml:space="preserve">HDMI Kablo</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethernet Kablo (UTP)</t>
+    <t xml:space="preserve">Havlu (Ankara)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havlu (banyo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iki port USB adaptör (Ankara)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapı altı stoper (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapı stoperi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapı stoperi (Silikon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karga burun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaşar (migros)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koli bandı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontrol kalemi (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krema (migros)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulaklık (kablolu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kızartma Tenceresi (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED lamba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Led fener yuvarlak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lif (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maket bıçağı (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masa lastiği (ayak)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masa örtü kıskacı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merdane (Ankara)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini USB kablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modem tel kablosu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklava (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pense (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perde kancası</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perde stoperi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pijama (erkek)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pijama (kadın)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pil (Kalın)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pil (İnce)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeater (Ankara)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeater (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensörlü (LED) (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensörlü Lamba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinek ilacı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinek ilacı sprey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinek raketi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinek İlacı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sıvı yağ (migros)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-Shirt (Ankara)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabure (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tahta kaşık (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tahta çubuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teflon tava (Ankara)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tencere (Ufak) (Eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornavida (Düz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornavida (Yıldız)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornavida seti (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toz bezi (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB - Ethernet çevirici (Ankara)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB 3.0 kablo (Ankara)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB Kablo (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB hub ethernetli (eksik)</t>
   </si>
   <si>
     <t xml:space="preserve">Uzatma kablosu</t>
   </si>
   <si>
-    <t xml:space="preserve">Adaptör (USB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Güç korumalı priz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koli bandı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pil (Kalın)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pil (İnce)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensörlü Lamba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eldiven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Led fener yuvarlak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masa örtü kıskacı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tornavida (Yıldız)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tornavida (Düz)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karga burun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapı stoperi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masa lastiği (ayak)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tahta çubuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perde stoperi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perde kancası</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapı stoperi (Silikon)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metre</t>
+    <t xml:space="preserve">Uzatma kablosu - USB (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wifi repater (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yan keski (eksik)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoğurt kasesi (eksik)</t>
   </si>
   <si>
     <t xml:space="preserve">Çekiç (eksik)</t>
   </si>
   <si>
-    <t xml:space="preserve">Kontrol kalemi (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maket bıçağı (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yan keski (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pense (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tornavida seti (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektrikli el tornavidası (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptör (USB) (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB Kablo (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ampul (beyaz)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ampul LED (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bornoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dolap stoperi (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eldiven (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-shirt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinek ilacı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lif (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banyo kesesi (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dürbün (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eğe (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayakkabı çekeceği (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinek ilacı sprey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wifi repater (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB hub ethernetli (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabure (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oklava (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensörlü (LED) (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repeater (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoğurt kasesi (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tahta kaşık (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modem tel kablosu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toz bezi (eksik)</t>
+    <t xml:space="preserve">Çorap (kısa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Çorap (orta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Çorap (uzun)</t>
   </si>
   <si>
     <t xml:space="preserve">Çöp tenekesi (eksik)</t>
@@ -197,115 +296,7 @@
     <t xml:space="preserve">Şapka</t>
   </si>
   <si>
-    <t xml:space="preserve">Kasket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapı altı stoper (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaşar (migros)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sıvı yağ (migros)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krema (migros)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini USB kablo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzatma kablosu - USB (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pijama (erkek)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pijama (kadın)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Havlu (banyo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinek raketi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinek İlacı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iki port USB adaptör (Ankara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB - Ethernet çevirici (Ankara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repeater (Ankara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eski tel (Ankara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disk 5 TB (Ankara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB 3.0 kablo (Ankara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kızartma Tenceresi (eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED lamba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bel çantası (Ankara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tencere (Ufak) (Eksik)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teflon tava (Ankara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Havlu (Ankara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merdane (Ankara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T-Shirt (Ankara)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Şort (Ankara)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kulaklık (kablolu)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crocs terlik (sokak)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don (erkek)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Çorap (kısa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erkek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Çorap (orta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erkek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Çorap (uzun)</t>
   </si>
 </sst>
 </file>
@@ -591,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -602,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -613,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -624,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -635,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -668,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -679,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -690,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -701,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -712,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -734,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -745,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -767,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -778,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -789,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -800,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -811,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -844,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -855,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -866,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -877,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -899,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -907,10 +898,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -918,7 +909,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -929,10 +920,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -940,10 +931,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -951,10 +942,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -962,7 +953,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -973,7 +964,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -984,7 +975,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -995,10 +986,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1006,10 +997,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1017,10 +1008,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1028,10 +1019,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1039,10 +1030,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -1050,10 +1041,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1061,10 +1052,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1072,10 +1063,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -1083,7 +1074,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1094,10 +1085,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1105,10 +1096,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -1116,10 +1107,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1127,10 +1118,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -1138,10 +1129,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -1149,10 +1140,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -1163,7 +1154,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1174,7 +1165,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1185,7 +1176,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1207,7 +1198,7 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1218,7 +1209,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1240,7 +1231,7 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1251,7 +1242,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1262,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -1284,7 +1275,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -1295,7 +1286,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -1306,7 +1297,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -1317,7 +1308,7 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -1328,7 +1319,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1339,7 +1330,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -1361,7 +1352,7 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -1394,7 +1385,7 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -1405,7 +1396,7 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -1427,7 +1418,7 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -1438,7 +1429,7 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1449,7 +1440,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -1482,7 +1473,7 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -1504,7 +1495,7 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -1515,7 +1506,7 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -1526,7 +1517,7 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -1559,7 +1550,7 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -1570,32 +1561,21 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/malzeme_list_sql_app/assets/database/malzeme_backup.xlsx
+++ b/malzeme_list_sql_app/assets/database/malzeme_backup.xlsx
@@ -12,39 +12,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100" count="100">
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>meaning</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158" count="158">
+  <si>
+    <t>Malzeme</t>
+  </si>
+  <si>
+    <t>Açıklama</t>
+  </si>
+  <si>
+    <t>Miktar</t>
+  </si>
+  <si>
+    <t>Abajur</t>
+  </si>
+  <si>
+    <t>viski şişesi porselen</t>
+  </si>
+  <si>
+    <t>Adaptör (USB type-c)</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Adaptör (USB)</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Adaptör (USB) (eksik)</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Ampul (beyaz)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Ampul LED (eksik)</t>
+    <t>1 port</t>
+  </si>
+  <si>
+    <t>Belkin 2 port</t>
+  </si>
+  <si>
+    <t>Airfryer</t>
+  </si>
+  <si>
+    <t>Philips</t>
+  </si>
+  <si>
+    <t>Ampul LED</t>
+  </si>
+  <si>
+    <t>Beyaz ışık</t>
+  </si>
+  <si>
+    <t>Sarı ışık</t>
   </si>
   <si>
     <t>Ayakkabı çekeceği (eksik)</t>
   </si>
   <si>
-    <t>Banyo kesesi (eksik)</t>
+    <t>Banyo kesesi</t>
   </si>
   <si>
     <t>Bel çantası (Ankara)</t>
@@ -53,19 +71,43 @@
     <t>Bornoz</t>
   </si>
   <si>
-    <t>Crocs terlik (sokak)</t>
+    <t>Bulaşık makinesi</t>
+  </si>
+  <si>
+    <t>beko</t>
+  </si>
+  <si>
+    <t>Buzdolabı</t>
+  </si>
+  <si>
+    <t>Crocs terlik</t>
+  </si>
+  <si>
+    <t>Sokak</t>
+  </si>
+  <si>
+    <t>Crocs Terlik</t>
+  </si>
+  <si>
+    <t>ev</t>
   </si>
   <si>
     <t>Disk 5 TB (Ankara)</t>
   </si>
   <si>
-    <t>Dolap stoperi (eksik)</t>
+    <t>Dolap stoperi</t>
+  </si>
+  <si>
+    <t>paket</t>
   </si>
   <si>
     <t>Don (erkek)</t>
   </si>
   <si>
-    <t>Dürbün (eksik)</t>
+    <t>Dürbün</t>
+  </si>
+  <si>
+    <t>Kapı dürbünü</t>
   </si>
   <si>
     <t>Eldiven</t>
@@ -74,18 +116,21 @@
     <t>Eldiven (eksik)</t>
   </si>
   <si>
+    <t>cerrahi</t>
+  </si>
+  <si>
     <t>Elektrikli el tornavidası (eksik)</t>
   </si>
   <si>
     <t>Ethernet Kablo (UTP)</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Eğe (eksik)</t>
   </si>
   <si>
+    <t>Fön makinesi</t>
+  </si>
+  <si>
     <t>Güç korumalı priz</t>
   </si>
   <si>
@@ -98,10 +143,13 @@
     <t>HDMI Kablo</t>
   </si>
   <si>
-    <t>Iki port USB adaptör (Ankara)</t>
-  </si>
-  <si>
-    <t>Kapı altı stoper (eksik)</t>
+    <t>Iki kapaklı gardrop</t>
+  </si>
+  <si>
+    <t>Kanape (2 kişilik)</t>
+  </si>
+  <si>
+    <t>çek yat</t>
   </si>
   <si>
     <t>Kapı stoperi</t>
@@ -110,27 +158,45 @@
     <t>Kapı stoperi (Silikon)</t>
   </si>
   <si>
+    <t>Kare masa</t>
+  </si>
+  <si>
+    <t>katlanır</t>
+  </si>
+  <si>
     <t>Karga burun</t>
   </si>
   <si>
     <t>Kasket</t>
   </si>
   <si>
-    <t>Kaşar (migros)</t>
+    <t>Klima</t>
   </si>
   <si>
     <t>Koli bandı</t>
   </si>
   <si>
+    <t>Koltuk</t>
+  </si>
+  <si>
+    <t>kumaş kaplı</t>
+  </si>
+  <si>
+    <t>Komidin</t>
+  </si>
+  <si>
     <t>Kontrol kalemi (eksik)</t>
   </si>
   <si>
-    <t>Krema (migros)</t>
-  </si>
-  <si>
     <t>Kulaklık (kablolu)</t>
   </si>
   <si>
+    <t>Köşeli koltuk (Verenda)</t>
+  </si>
+  <si>
+    <t>2 tane ikili bir tane tekli köşe</t>
+  </si>
+  <si>
     <t>Kızartma Tenceresi (eksik)</t>
   </si>
   <si>
@@ -146,12 +212,21 @@
     <t>Maket bıçağı (eksik)</t>
   </si>
   <si>
+    <t>Masa</t>
+  </si>
+  <si>
+    <t>veranda</t>
+  </si>
+  <si>
     <t>Masa lastiği (ayak)</t>
   </si>
   <si>
     <t>Masa örtü kıskacı</t>
   </si>
   <si>
+    <t>2 paket</t>
+  </si>
+  <si>
     <t>Mayo</t>
   </si>
   <si>
@@ -164,27 +239,45 @@
     <t>Mini USB kablo</t>
   </si>
   <si>
+    <t>Modem</t>
+  </si>
+  <si>
+    <t>fiber</t>
+  </si>
+  <si>
     <t>Modem tel kablosu</t>
   </si>
   <si>
+    <t>Ocak</t>
+  </si>
+  <si>
+    <t>beko seramik</t>
+  </si>
+  <si>
+    <t>Ocak (seramik)</t>
+  </si>
+  <si>
+    <t>kazıma aracı</t>
+  </si>
+  <si>
     <t>Oklava (eksik)</t>
   </si>
   <si>
+    <t>Pantolon (uzun)</t>
+  </si>
+  <si>
+    <t>erkek yeşil soluk</t>
+  </si>
+  <si>
     <t>Pense (eksik)</t>
   </si>
   <si>
     <t>Perde kancası</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>Perde stoperi</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Pijama (erkek)</t>
   </si>
   <si>
@@ -194,9 +287,6 @@
     <t>Pil (İnce)</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Pil (Kalın)</t>
   </si>
   <si>
@@ -209,31 +299,49 @@
     <t>Repeater (eksik)</t>
   </si>
   <si>
-    <t>Sensörlü (LED) (eksik)</t>
+    <t>Sandalye (Verenda)</t>
+  </si>
+  <si>
+    <t>ahşap, kolçaklı, alt minderli</t>
+  </si>
+  <si>
+    <t>Sehpa (Telli)</t>
+  </si>
+  <si>
+    <t>Sehpa (Verenda)</t>
+  </si>
+  <si>
+    <t>Ahşap</t>
   </si>
   <si>
     <t>Sensörlü Lamba</t>
   </si>
   <si>
+    <t>yuvarlak</t>
+  </si>
+  <si>
+    <t>Sensörlü LED lamba</t>
+  </si>
+  <si>
+    <t>mutfak</t>
+  </si>
+  <si>
+    <t>Sinek İlacı</t>
+  </si>
+  <si>
     <t>Sinek ilacı</t>
   </si>
   <si>
-    <t>Sinek İlacı</t>
-  </si>
-  <si>
     <t>Sinek ilacı sprey</t>
   </si>
   <si>
     <t>Sinek raketi</t>
   </si>
   <si>
-    <t>Sıvı yağ (migros)</t>
-  </si>
-  <si>
     <t>T-shirt</t>
   </si>
   <si>
-    <t>T-Shirt (Ankara)</t>
+    <t>Sevilla/Floridita/Morocco/Vodka/Bodrum/Malta/Dubrovnik</t>
   </si>
   <si>
     <t>Tabure</t>
@@ -245,10 +353,22 @@
     <t>Tahta kaşık (eksik)</t>
   </si>
   <si>
+    <t>Tahta raf</t>
+  </si>
+  <si>
+    <t>köşelik</t>
+  </si>
+  <si>
     <t>Tahta çubuk</t>
   </si>
   <si>
-    <t>Teflon tava (Ankara)</t>
+    <t>Tavan lambası</t>
+  </si>
+  <si>
+    <t>Dantel abajurlu</t>
+  </si>
+  <si>
+    <t>Teflon tava</t>
   </si>
   <si>
     <t>Tencere (Ufak) (Eksik)</t>
@@ -266,10 +386,22 @@
     <t>Toz bezi (eksik)</t>
   </si>
   <si>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t>TV altı</t>
+  </si>
+  <si>
+    <t>kapaklı dolap</t>
+  </si>
+  <si>
     <t>USB - Ethernet çevirici (Ankara)</t>
   </si>
   <si>
-    <t>USB 3.0 kablo (Ankara)</t>
+    <t>USB 3.0 kablo</t>
+  </si>
+  <si>
+    <t>disk kablosu</t>
   </si>
   <si>
     <t>USB hub ethernetli (eksik)</t>
@@ -281,7 +413,13 @@
     <t>Uzatma kablosu</t>
   </si>
   <si>
-    <t>Uzatma kablosu - USB (eksik)</t>
+    <t>3 lü normal boy</t>
+  </si>
+  <si>
+    <t>Uzatma kablosu - USB</t>
+  </si>
+  <si>
+    <t>2m / Üçlü / 3 port usb</t>
   </si>
   <si>
     <t>Wifi repater (eksik)</t>
@@ -290,15 +428,36 @@
     <t>Yan keski (eksik)</t>
   </si>
   <si>
+    <t>Yatak (Bazalı)</t>
+  </si>
+  <si>
+    <t>tek kişilik</t>
+  </si>
+  <si>
     <t>Yoğurt kasesi (eksik)</t>
   </si>
   <si>
+    <t>Yuvarlak masa</t>
+  </si>
+  <si>
+    <t>Çamaşır askısı</t>
+  </si>
+  <si>
+    <t>balkon</t>
+  </si>
+  <si>
+    <t>Çamaşır makinesi</t>
+  </si>
+  <si>
     <t>Çekiç (eksik)</t>
   </si>
   <si>
     <t>Çorap (kısa)</t>
   </si>
   <si>
+    <t>erkek</t>
+  </si>
+  <si>
     <t>Çorap (orta)</t>
   </si>
   <si>
@@ -311,7 +470,22 @@
     <t>Şapka</t>
   </si>
   <si>
-    <t>Şort (Ankara)</t>
+    <t>Şarj cihazı</t>
+  </si>
+  <si>
+    <t>4 pil kapsiteli</t>
+  </si>
+  <si>
+    <t>Şort</t>
+  </si>
+  <si>
+    <t>kumaş bej / lacivert / Mavi</t>
+  </si>
+  <si>
+    <t>Şort (erkek)</t>
+  </si>
+  <si>
+    <t>dışarı giyim bej</t>
   </si>
 </sst>
 </file>
@@ -371,7 +545,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0"/>
     </xf>
@@ -380,6 +554,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -401,7 +581,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.284285714285716" customWidth="1"/>
-    <col min="3" max="3" width="4.284285714285714" customWidth="1"/>
+    <col min="2" max="2" width="40.714285714285715" customWidth="1"/>
+    <col min="3" max="3" width="8.714285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -411,838 +592,1310 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1"/>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7"/>
-      <c r="C7" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n" s="4">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n" s="4">
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13"/>
-      <c r="C13" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C15" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16" t="s">
-        <v>5</v>
+        <v>24</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C16" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18"/>
-      <c r="C18" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C18" t="n" s="4">
+        <v>50.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19" t="s">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="B19" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20" t="s">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="B20" t="s" s="3">
+        <v>31</v>
+      </c>
+      <c r="C20" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>34</v>
+      </c>
+      <c r="C22" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23" t="s">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B24" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B25" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="B26" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27"/>
-      <c r="C27" t="s">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="B27" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28" t="s">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="B28" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29" t="s">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="B29" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30" t="s">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="B30" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31" t="s">
-        <v>7</v>
+        <v>43</v>
+      </c>
+      <c r="B31" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32" t="s">
-        <v>5</v>
+        <v>44</v>
+      </c>
+      <c r="B32" t="s" s="3">
+        <v>45</v>
+      </c>
+      <c r="C32" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33" t="s">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B33" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C33" t="n" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34" t="s">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="B34" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C34" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35" t="s">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="B35" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="C35" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36" t="s">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="B36" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37"/>
-      <c r="C37" t="s">
-        <v>3</v>
+        <v>51</v>
+      </c>
+      <c r="B37" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38"/>
-      <c r="C38" t="s">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="B38" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C38" t="n" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39"/>
-      <c r="C39" t="s">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="B39" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40"/>
-      <c r="C40" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="B40" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="C40" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41"/>
-      <c r="C41" t="s">
-        <v>22</v>
+        <v>56</v>
+      </c>
+      <c r="B41" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42"/>
-      <c r="C42" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="B42" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43"/>
-      <c r="C43" t="s">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c r="B43" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44"/>
-      <c r="C44" t="s">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="B44" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="C44" t="n" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45"/>
-      <c r="C45" t="s">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="B45" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46"/>
-      <c r="C46" t="s">
-        <v>7</v>
+        <v>62</v>
+      </c>
+      <c r="B46" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C46" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47" t="s">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="B47" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48" t="s">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="B48" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="B49" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C49" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50"/>
-      <c r="C50" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="B50" t="s" s="3">
+        <v>67</v>
+      </c>
+      <c r="C50" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51"/>
-      <c r="C51" t="s">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="B51" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C51" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52"/>
-      <c r="C52" t="s">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="B52" t="s" s="3">
+        <v>70</v>
+      </c>
+      <c r="C52" t="n" s="4">
+        <v>8.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53"/>
-      <c r="C53" t="s">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="B53" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C53" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="B54" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C54" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55" t="s">
-        <v>3</v>
+        <v>73</v>
+      </c>
+      <c r="B55" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C55" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56"/>
-      <c r="C56" t="s">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="B56" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C56" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57"/>
-      <c r="C57" t="s">
-        <v>3</v>
+        <v>75</v>
+      </c>
+      <c r="B57" t="s" s="3">
+        <v>76</v>
+      </c>
+      <c r="C57" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58" t="s">
-        <v>5</v>
+        <v>77</v>
+      </c>
+      <c r="B58" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59"/>
-      <c r="C59" t="s">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="B59" t="s" s="3">
+        <v>79</v>
+      </c>
+      <c r="C59" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60" t="s">
-        <v>7</v>
+        <v>80</v>
+      </c>
+      <c r="B60" t="s" s="3">
+        <v>81</v>
+      </c>
+      <c r="C60" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61"/>
-      <c r="C61" t="s">
-        <v>7</v>
+        <v>82</v>
+      </c>
+      <c r="B61" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C61" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62" t="s">
-        <v>3</v>
+        <v>83</v>
+      </c>
+      <c r="B62" t="s" s="3">
+        <v>84</v>
+      </c>
+      <c r="C62" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63"/>
-      <c r="C63" t="s">
-        <v>3</v>
+        <v>85</v>
+      </c>
+      <c r="B63" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C63" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64"/>
-      <c r="C64" t="s">
-        <v>3</v>
+        <v>86</v>
+      </c>
+      <c r="B64" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C64" t="n" s="4">
+        <v>20.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65" t="s">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="B65" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C65" t="n" s="4">
+        <v>7.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66"/>
-      <c r="C66" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="B66" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C66" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67"/>
-      <c r="C67" t="s">
-        <v>7</v>
+        <v>89</v>
+      </c>
+      <c r="B67" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68"/>
-      <c r="C68" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="B68" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C68" t="n" s="4">
+        <v>4.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69"/>
-      <c r="C69" t="s">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="B69" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C69" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70"/>
-      <c r="C70" t="s">
-        <v>5</v>
+        <v>91</v>
+      </c>
+      <c r="B70" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C70" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71"/>
-      <c r="C71" t="s">
-        <v>22</v>
+        <v>92</v>
+      </c>
+      <c r="B71" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C71" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72"/>
-      <c r="C72" t="s">
-        <v>3</v>
+        <v>93</v>
+      </c>
+      <c r="B72" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C72" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73"/>
-      <c r="C73" t="s">
-        <v>5</v>
+        <v>94</v>
+      </c>
+      <c r="B73" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C73" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74"/>
-      <c r="C74" t="s">
-        <v>3</v>
+        <v>95</v>
+      </c>
+      <c r="B74" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="C74" t="n" s="4">
+        <v>6.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75"/>
-      <c r="C75" t="s">
-        <v>3</v>
+        <v>97</v>
+      </c>
+      <c r="B75" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C75" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76"/>
-      <c r="C76" t="s">
-        <v>5</v>
+        <v>98</v>
+      </c>
+      <c r="B76" t="s" s="3">
+        <v>99</v>
+      </c>
+      <c r="C76" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77"/>
-      <c r="C77" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="B77" t="s" s="3">
+        <v>101</v>
+      </c>
+      <c r="C77" t="n" s="4">
+        <v>6.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>84</v>
-      </c>
-      <c r="B78"/>
-      <c r="C78" t="s">
-        <v>3</v>
+        <v>102</v>
+      </c>
+      <c r="B78" t="s" s="3">
+        <v>103</v>
+      </c>
+      <c r="C78" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79"/>
-      <c r="C79" t="s">
-        <v>3</v>
+        <v>104</v>
+      </c>
+      <c r="B79" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C79" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80"/>
-      <c r="C80" t="s">
-        <v>5</v>
+        <v>105</v>
+      </c>
+      <c r="B80" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C80" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81"/>
-      <c r="C81" t="s">
-        <v>5</v>
+        <v>106</v>
+      </c>
+      <c r="B81" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C81" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82"/>
-      <c r="C82" t="s">
-        <v>3</v>
+        <v>107</v>
+      </c>
+      <c r="B82" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C82" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83"/>
-      <c r="C83" t="s">
-        <v>5</v>
+        <v>108</v>
+      </c>
+      <c r="B83" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="C83" t="n" s="4">
+        <v>7.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84"/>
-      <c r="C84" t="s">
-        <v>5</v>
+        <v>110</v>
+      </c>
+      <c r="B84" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C84" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85"/>
-      <c r="C85" t="s">
-        <v>5</v>
+        <v>111</v>
+      </c>
+      <c r="B85" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C85" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86"/>
-      <c r="C86" t="s">
-        <v>5</v>
+        <v>112</v>
+      </c>
+      <c r="B86" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C86" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87"/>
-      <c r="C87" t="s">
-        <v>5</v>
+        <v>113</v>
+      </c>
+      <c r="B87" t="s" s="3">
+        <v>114</v>
+      </c>
+      <c r="C87" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88"/>
-      <c r="C88" t="s">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="B88" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C88" t="n" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>95</v>
-      </c>
-      <c r="B89"/>
-      <c r="C89" t="s">
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="B89" t="s" s="3">
+        <v>117</v>
+      </c>
+      <c r="C89" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90"/>
-      <c r="C90" t="s">
-        <v>3</v>
+        <v>118</v>
+      </c>
+      <c r="B90" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C90" t="n" s="4">
+        <v>2.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91"/>
-      <c r="C91" t="s">
-        <v>5</v>
+        <v>119</v>
+      </c>
+      <c r="B91" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C91" t="n" s="4">
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92"/>
-      <c r="C92" t="s">
-        <v>7</v>
+        <v>120</v>
+      </c>
+      <c r="B92" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C92" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93"/>
-      <c r="C93" t="s">
-        <v>7</v>
+        <v>121</v>
+      </c>
+      <c r="B93" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C93" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C94" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C95" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="C96" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" t="s" s="3">
+        <v>126</v>
+      </c>
+      <c r="C97" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C98" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" t="s" s="3">
+        <v>129</v>
+      </c>
+      <c r="C99" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C100" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C101" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" t="s" s="3">
+        <v>133</v>
+      </c>
+      <c r="C102" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" t="s" s="3">
+        <v>135</v>
+      </c>
+      <c r="C103" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C104" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C105" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" t="s" s="3">
+        <v>139</v>
+      </c>
+      <c r="C106" t="n" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B107" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C107" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C108" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" t="s" s="3">
+        <v>143</v>
+      </c>
+      <c r="C109" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C110" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>145</v>
+      </c>
+      <c r="B111" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C111" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" t="s" s="3">
+        <v>147</v>
+      </c>
+      <c r="C112" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" t="s" s="3">
+        <v>147</v>
+      </c>
+      <c r="C113" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" t="s" s="3">
+        <v>147</v>
+      </c>
+      <c r="C114" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C115" t="n" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C116" t="n" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" t="s" s="3">
+        <v>153</v>
+      </c>
+      <c r="C117" t="n" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" t="s" s="3">
+        <v>155</v>
+      </c>
+      <c r="C118" t="n" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>156</v>
+      </c>
+      <c r="B119" t="s" s="3">
+        <v>157</v>
+      </c>
+      <c r="C119" t="n" s="4">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C93"/>
+  <autoFilter ref="A1:C119"/>
   <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
